--- a/samples/direct-mode/excels/example.xlsx
+++ b/samples/direct-mode/excels/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980"/>
+    <workbookView xWindow="6700" yWindow="2980" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +232,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,14 +574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="10.83203125" style="17"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,7 +596,7 @@
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="15">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -632,7 +642,7 @@
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -640,64 +650,73 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5">
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/samples/direct-mode/excels/example.xlsx
+++ b/samples/direct-mode/excels/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="2980" windowWidth="25600" windowHeight="14980"/>
+    <workbookView xWindow="4780" yWindow="3320" windowWidth="30640" windowHeight="16820"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>版本：</t>
   </si>
@@ -70,38 +70,81 @@
   </si>
   <si>
     <t>掉落关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>drops</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>键值是否重复：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这是一张范例表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落概率1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prob}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落概率2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>掉落道具1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drops2 [ drop { level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop { level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prob } ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,13 +152,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -132,11 +168,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -161,11 +194,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,59 +222,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,152 +643,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="17"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="7">
         <v>100</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15">
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"中文,英文,数字,字符"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/samples/direct-mode/excels/example.xlsx
+++ b/samples/direct-mode/excels/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="3320" windowWidth="30640" windowHeight="16820"/>
+    <workbookView xWindow="5100" yWindow="4000" windowWidth="30640" windowHeight="16820"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>品质</t>
   </si>
   <si>
@@ -137,6 +131,14 @@
   </si>
   <si>
     <t>Array&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称:locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述:locale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +648,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -668,16 +670,16 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -692,57 +694,57 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -762,31 +764,31 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -794,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -823,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -846,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
